--- a/src/server/src/KNTC.HttpApi.Host/wwwroot/ExcelTemplate/Denounce.xlsx
+++ b/src/server/src/KNTC.HttpApi.Host/wwwroot/ExcelTemplate/Denounce.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26130"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26227"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\CongViec\HTTT_KNTC\src\server\src\KNTC.HttpApi.Host\wwwroot\ExcelTemplate\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AB3A3E5D-15DD-44F5-B306-04081F819E35}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E343B893-1B21-48C0-B6C7-686F26FBA4BD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="16776" xr2:uid="{0B9424AD-25DA-4A23-8214-71AA833D29AE}"/>
   </bookViews>
@@ -516,9 +516,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6716B53E-13F1-4440-95CF-2CF41ED2ADD4}">
   <dimension ref="A1:L15"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <pane ySplit="13" topLeftCell="A14" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="K18" sqref="K18"/>
+    <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+      <pane ySplit="14" topLeftCell="A15" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E17" sqref="E17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>

--- a/src/server/src/KNTC.HttpApi.Host/wwwroot/ExcelTemplate/Denounce.xlsx
+++ b/src/server/src/KNTC.HttpApi.Host/wwwroot/ExcelTemplate/Denounce.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26227"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26501"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\CongViec\HTTT_KNTC\src\server\src\KNTC.HttpApi.Host\wwwroot\ExcelTemplate\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\CongViec\KNTC\SourceCode\HTTT_KNTC\src\server\src\KNTC.HttpApi.Host\wwwroot\ExcelTemplate\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E343B893-1B21-48C0-B6C7-686F26FBA4BD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0D608D74-A907-4483-9016-D6F1CBEDE9FC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="16776" xr2:uid="{0B9424AD-25DA-4A23-8214-71AA833D29AE}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="23">
   <si>
     <t>HTTTTT Quản lý Đơn thư Khiếu nại, Tố cáo</t>
   </si>
@@ -62,9 +62,6 @@
     <t>Xã/Phường:</t>
   </si>
   <si>
-    <t>tThời gian tiếp nhận:</t>
-  </si>
-  <si>
     <t>Kết quả:</t>
   </si>
   <si>
@@ -99,6 +96,15 @@
   </si>
   <si>
     <t>DANH SÁCH ĐƠN  THƯ TỐ CÁO</t>
+  </si>
+  <si>
+    <t>Từ khóa:</t>
+  </si>
+  <si>
+    <t>Người nộp đơn:</t>
+  </si>
+  <si>
+    <t>Thời gian tiếp nhận:</t>
   </si>
 </sst>
 </file>
@@ -514,11 +520,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6716B53E-13F1-4440-95CF-2CF41ED2ADD4}">
-  <dimension ref="A1:L15"/>
+  <dimension ref="A1:L17"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <pane ySplit="14" topLeftCell="A15" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E17" sqref="E17"/>
+      <pane ySplit="16" topLeftCell="A17" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D13" sqref="D13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -547,7 +553,7 @@
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A3" s="11" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B3" s="11"/>
       <c r="C3" s="11"/>
@@ -564,29 +570,25 @@
       <c r="B4" s="3"/>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B5" s="3"/>
       <c r="D5" s="2" t="s">
-        <v>11</v>
+        <v>20</v>
       </c>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B6" s="3"/>
       <c r="D6" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="E6" s="8"/>
-      <c r="F6" s="8"/>
-      <c r="G6" s="8"/>
+        <v>21</v>
+      </c>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.25">
       <c r="D7" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="E7" s="8"/>
-      <c r="F7" s="8"/>
-      <c r="G7" s="8"/>
+        <v>10</v>
+      </c>
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.25">
       <c r="D8" s="2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E8" s="8"/>
       <c r="F8" s="8"/>
@@ -594,7 +596,7 @@
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.25">
       <c r="D9" s="2" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="E9" s="8"/>
       <c r="F9" s="8"/>
@@ -602,7 +604,7 @@
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.25">
       <c r="D10" s="2" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="E10" s="8"/>
       <c r="F10" s="8"/>
@@ -610,69 +612,85 @@
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.25">
       <c r="D11" s="2" t="s">
-        <v>12</v>
+        <v>22</v>
       </c>
       <c r="E11" s="8"/>
       <c r="F11" s="8"/>
       <c r="G11" s="8"/>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A14" s="4" t="s">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="D12" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E12" s="8"/>
+      <c r="F12" s="8"/>
+      <c r="G12" s="8"/>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="D13" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="E13" s="8"/>
+      <c r="F13" s="8"/>
+      <c r="G13" s="8"/>
+    </row>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A16" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="B14" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="C14" s="4" t="s">
+      <c r="B16" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="C16" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="D16" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="E16" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="D14" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="E14" s="4" t="s">
+      <c r="F16" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="G16" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="F14" s="4" t="s">
+      <c r="H16" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="G14" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="H14" s="4" t="s">
+      <c r="I16" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="J16" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="K16" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="I14" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="J14" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="K14" s="4" t="s">
+      <c r="L16" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="L14" s="4" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A15" s="6">
+    </row>
+    <row r="17" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A17" s="6">
         <v>1</v>
       </c>
-      <c r="B15" s="7"/>
-      <c r="C15" s="7"/>
-      <c r="D15" s="7"/>
-      <c r="E15" s="7"/>
-      <c r="F15" s="7"/>
-      <c r="G15" s="7"/>
-      <c r="H15" s="7"/>
-      <c r="I15" s="9">
+      <c r="B17" s="7"/>
+      <c r="C17" s="7"/>
+      <c r="D17" s="7"/>
+      <c r="E17" s="7"/>
+      <c r="F17" s="7"/>
+      <c r="G17" s="7"/>
+      <c r="H17" s="7"/>
+      <c r="I17" s="9">
         <v>44567.625</v>
       </c>
-      <c r="J15" s="9">
+      <c r="J17" s="9">
         <v>44567.625</v>
       </c>
-      <c r="K15" s="7"/>
-      <c r="L15" s="7"/>
+      <c r="K17" s="7"/>
+      <c r="L17" s="7"/>
     </row>
   </sheetData>
   <mergeCells count="2">

--- a/src/server/src/KNTC.HttpApi.Host/wwwroot/ExcelTemplate/Denounce.xlsx
+++ b/src/server/src/KNTC.HttpApi.Host/wwwroot/ExcelTemplate/Denounce.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\CongViec\KNTC\SourceCode\HTTT_KNTC\src\server\src\KNTC.HttpApi.Host\wwwroot\ExcelTemplate\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\CongViec\MyProjects\HTTT_KNTC\src\server\src\KNTC.HttpApi.Host\wwwroot\ExcelTemplate\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0D608D74-A907-4483-9016-D6F1CBEDE9FC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A076184D-DCD9-4D6C-B87A-6BED8147EEE9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="16776" xr2:uid="{0B9424AD-25DA-4A23-8214-71AA833D29AE}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{0B9424AD-25DA-4A23-8214-71AA833D29AE}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -74,9 +74,6 @@
     <t>Công khai:</t>
   </si>
   <si>
-    <t>Người tố cáo</t>
-  </si>
-  <si>
     <t>Địa chỉ</t>
   </si>
   <si>
@@ -105,6 +102,9 @@
   </si>
   <si>
     <t>Thời gian tiếp nhận:</t>
+  </si>
+  <si>
+    <t>Người nộp đơn</t>
   </si>
 </sst>
 </file>
@@ -524,23 +524,23 @@
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
       <pane ySplit="16" topLeftCell="A17" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D13" sqref="D13"/>
+      <selection pane="bottomLeft" activeCell="D19" sqref="D19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="5.109375" style="1" customWidth="1"/>
-    <col min="2" max="2" width="10.6640625" style="1" customWidth="1"/>
-    <col min="3" max="3" width="15.109375" style="1" customWidth="1"/>
-    <col min="4" max="4" width="19.33203125" style="1" customWidth="1"/>
+    <col min="1" max="1" width="5.140625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="10.7109375" style="1" customWidth="1"/>
+    <col min="3" max="3" width="15.140625" style="1" customWidth="1"/>
+    <col min="4" max="4" width="19.28515625" style="1" customWidth="1"/>
     <col min="5" max="5" width="28" style="1" customWidth="1"/>
-    <col min="6" max="6" width="19.6640625" style="1" customWidth="1"/>
-    <col min="7" max="7" width="20.77734375" style="1" customWidth="1"/>
-    <col min="8" max="8" width="25.33203125" style="1" customWidth="1"/>
-    <col min="9" max="10" width="17.5546875" style="1" customWidth="1"/>
+    <col min="6" max="6" width="19.7109375" style="1" customWidth="1"/>
+    <col min="7" max="7" width="20.7109375" style="1" customWidth="1"/>
+    <col min="8" max="8" width="25.28515625" style="1" customWidth="1"/>
+    <col min="9" max="10" width="17.5703125" style="1" customWidth="1"/>
     <col min="11" max="11" width="17" style="1" customWidth="1"/>
-    <col min="12" max="12" width="14.6640625" style="1" customWidth="1"/>
-    <col min="13" max="16384" width="8.88671875" style="1"/>
+    <col min="12" max="12" width="14.7109375" style="1" customWidth="1"/>
+    <col min="13" max="16384" width="8.85546875" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:12" x14ac:dyDescent="0.25">
@@ -553,7 +553,7 @@
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A3" s="11" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B3" s="11"/>
       <c r="C3" s="11"/>
@@ -572,13 +572,13 @@
     <row r="5" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B5" s="3"/>
       <c r="D5" s="2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B6" s="3"/>
       <c r="D6" s="2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.25">
@@ -612,7 +612,7 @@
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.25">
       <c r="D11" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E11" s="8"/>
       <c r="F11" s="8"/>
@@ -642,22 +642,22 @@
         <v>9</v>
       </c>
       <c r="C16" s="4" t="s">
-        <v>12</v>
+        <v>22</v>
       </c>
       <c r="D16" s="4" t="s">
         <v>2</v>
       </c>
       <c r="E16" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="F16" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="G16" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="F16" s="4" t="s">
+      <c r="H16" s="4" t="s">
         <v>15</v>
-      </c>
-      <c r="G16" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="H16" s="4" t="s">
-        <v>16</v>
       </c>
       <c r="I16" s="4" t="s">
         <v>3</v>
@@ -666,10 +666,10 @@
         <v>4</v>
       </c>
       <c r="K16" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="L16" s="4" t="s">
         <v>17</v>
-      </c>
-      <c r="L16" s="4" t="s">
-        <v>18</v>
       </c>
     </row>
     <row r="17" spans="1:12" x14ac:dyDescent="0.25">

--- a/src/server/src/KNTC.HttpApi.Host/wwwroot/ExcelTemplate/Denounce.xlsx
+++ b/src/server/src/KNTC.HttpApi.Host/wwwroot/ExcelTemplate/Denounce.xlsx
@@ -1,21 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26501"/>
-  <workbookPr defaultThemeVersion="166925"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="7" rupBuild="14420"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\CongViec\MyProjects\HTTT_KNTC\src\server\src\KNTC.HttpApi.Host\wwwroot\ExcelTemplate\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Duong\Projects\Hau\KNTC\Code\PostgreSQL\src\server\src\KNTC.HttpApi.Host\wwwroot\ExcelTemplate\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A076184D-DCD9-4D6C-B87A-6BED8147EEE9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{0B9424AD-25DA-4A23-8214-71AA833D29AE}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029" calcOnSave="0" concurrentCalc="0"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -36,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="29">
   <si>
     <t>HTTTTT Quản lý Đơn thư Khiếu nại, Tố cáo</t>
   </si>
@@ -86,15 +85,9 @@
     <t>Nội dung TC</t>
   </si>
   <si>
-    <t>Bộ phận đang Xl</t>
-  </si>
-  <si>
     <t>Kết luận NDTC</t>
   </si>
   <si>
-    <t>DANH SÁCH ĐƠN  THƯ TỐ CÁO</t>
-  </si>
-  <si>
     <t>Từ khóa:</t>
   </si>
   <si>
@@ -105,16 +98,40 @@
   </si>
   <si>
     <t>Người nộp đơn</t>
+  </si>
+  <si>
+    <t>UBND tỉnh Thái Nguyên</t>
+  </si>
+  <si>
+    <t>CỘNG HÒA XÃ HỘI CHỦ NGHĨA VIỆT NAM</t>
+  </si>
+  <si>
+    <t>Sở Tài nguyên và Môi trường Thái Nguyên</t>
+  </si>
+  <si>
+    <t>Độc lập - Tự do - Hạnh phúc</t>
+  </si>
+  <si>
+    <t>---------------</t>
+  </si>
+  <si>
+    <t>DANH SÁCH ĐƠN THƯ TỐ CÁO</t>
+  </si>
+  <si>
+    <t>Bộ phận đang XL</t>
+  </si>
+  <si>
+    <t>Thái Nguyên, Ngày …… Tháng ……. Năm …….</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="dd/mm/yyyy\ hh:mm"/>
   </numFmts>
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -136,6 +153,19 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
       <name val="Times New Roman"/>
       <family val="1"/>
     </font>
@@ -175,7 +205,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -183,9 +213,6 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -200,10 +227,21 @@
     <xf numFmtId="164" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -519,130 +557,156 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6716B53E-13F1-4440-95CF-2CF41ED2ADD4}">
-  <dimension ref="A1:L17"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:N25"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <pane ySplit="16" topLeftCell="A17" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D19" sqref="D19"/>
+    <sheetView tabSelected="1" zoomScale="102" zoomScaleNormal="102" workbookViewId="0">
+      <selection activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="5.140625" style="1" customWidth="1"/>
-    <col min="2" max="2" width="10.7109375" style="1" customWidth="1"/>
-    <col min="3" max="3" width="15.140625" style="1" customWidth="1"/>
-    <col min="4" max="4" width="19.28515625" style="1" customWidth="1"/>
+    <col min="1" max="1" width="5.109375" style="1" customWidth="1"/>
+    <col min="2" max="2" width="10.6640625" style="1" customWidth="1"/>
+    <col min="3" max="3" width="15.77734375" style="1" customWidth="1"/>
+    <col min="4" max="4" width="18.77734375" style="1" customWidth="1"/>
     <col min="5" max="5" width="28" style="1" customWidth="1"/>
-    <col min="6" max="6" width="19.7109375" style="1" customWidth="1"/>
-    <col min="7" max="7" width="20.7109375" style="1" customWidth="1"/>
-    <col min="8" max="8" width="25.28515625" style="1" customWidth="1"/>
-    <col min="9" max="10" width="17.5703125" style="1" customWidth="1"/>
+    <col min="6" max="6" width="17.88671875" style="1" customWidth="1"/>
+    <col min="7" max="7" width="15" style="1" customWidth="1"/>
+    <col min="8" max="8" width="27.5546875" style="1" customWidth="1"/>
+    <col min="9" max="10" width="15" style="1" customWidth="1"/>
     <col min="11" max="11" width="17" style="1" customWidth="1"/>
-    <col min="12" max="12" width="14.7109375" style="1" customWidth="1"/>
-    <col min="13" max="16384" width="8.85546875" style="1"/>
+    <col min="12" max="12" width="14.6640625" style="1" customWidth="1"/>
+    <col min="13" max="16384" width="8.88671875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A1" s="10" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="10"/>
-      <c r="C1" s="10"/>
-      <c r="D1" s="10"/>
-    </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A3" s="11" t="s">
-        <v>18</v>
-      </c>
-      <c r="B3" s="11"/>
-      <c r="C3" s="11"/>
-      <c r="D3" s="11"/>
-      <c r="E3" s="11"/>
-      <c r="F3" s="11"/>
-      <c r="G3" s="2"/>
-      <c r="H3" s="2"/>
-      <c r="I3" s="2"/>
-      <c r="J3" s="2"/>
-      <c r="K3" s="2"/>
-    </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="B4" s="3"/>
-    </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:14" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A1" s="13" t="s">
+        <v>21</v>
+      </c>
+      <c r="B1" s="13"/>
+      <c r="C1" s="13"/>
+      <c r="D1" s="13"/>
+      <c r="H1" s="14" t="s">
+        <v>22</v>
+      </c>
+      <c r="I1" s="14"/>
+      <c r="J1" s="14"/>
+      <c r="K1" s="9"/>
+    </row>
+    <row r="2" spans="1:14" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A2" s="13" t="s">
+        <v>23</v>
+      </c>
+      <c r="B2" s="13"/>
+      <c r="C2" s="13"/>
+      <c r="D2" s="13"/>
+      <c r="H2" s="14" t="s">
+        <v>24</v>
+      </c>
+      <c r="I2" s="14"/>
+      <c r="J2" s="14"/>
+      <c r="K2" s="9"/>
+    </row>
+    <row r="3" spans="1:14" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="H3" s="15" t="s">
+        <v>25</v>
+      </c>
+      <c r="I3" s="15"/>
+      <c r="J3" s="15"/>
+    </row>
+    <row r="4" spans="1:14" ht="22.8" x14ac:dyDescent="0.4">
+      <c r="A4" s="12" t="s">
+        <v>26</v>
+      </c>
+      <c r="B4" s="12"/>
+      <c r="C4" s="12"/>
+      <c r="D4" s="12"/>
+      <c r="E4" s="12"/>
+      <c r="F4" s="12"/>
+      <c r="G4" s="12"/>
+      <c r="H4" s="12"/>
+      <c r="I4" s="12"/>
+      <c r="J4" s="12"/>
+      <c r="K4" s="12"/>
+      <c r="L4" s="12"/>
+      <c r="M4" s="11"/>
+      <c r="N4" s="11"/>
+    </row>
+    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B5" s="3"/>
       <c r="D5" s="2" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B6" s="3"/>
       <c r="D6" s="2" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
       <c r="D7" s="2" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:14" x14ac:dyDescent="0.25">
       <c r="D8" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="E8" s="8"/>
-      <c r="F8" s="8"/>
-      <c r="G8" s="8"/>
-    </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="E8" s="7"/>
+      <c r="F8" s="7"/>
+      <c r="G8" s="7"/>
+    </row>
+    <row r="9" spans="1:14" x14ac:dyDescent="0.25">
       <c r="D9" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="E9" s="8"/>
-      <c r="F9" s="8"/>
-      <c r="G9" s="8"/>
-    </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="E9" s="7"/>
+      <c r="F9" s="7"/>
+      <c r="G9" s="7"/>
+    </row>
+    <row r="10" spans="1:14" x14ac:dyDescent="0.25">
       <c r="D10" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="E10" s="8"/>
-      <c r="F10" s="8"/>
-      <c r="G10" s="8"/>
-    </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="E10" s="7"/>
+      <c r="F10" s="7"/>
+      <c r="G10" s="7"/>
+    </row>
+    <row r="11" spans="1:14" x14ac:dyDescent="0.25">
       <c r="D11" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="E11" s="8"/>
-      <c r="F11" s="8"/>
-      <c r="G11" s="8"/>
-    </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
+        <v>19</v>
+      </c>
+      <c r="E11" s="7"/>
+      <c r="F11" s="7"/>
+      <c r="G11" s="7"/>
+    </row>
+    <row r="12" spans="1:14" x14ac:dyDescent="0.25">
       <c r="D12" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="E12" s="8"/>
-      <c r="F12" s="8"/>
-      <c r="G12" s="8"/>
-    </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="E12" s="7"/>
+      <c r="F12" s="7"/>
+      <c r="G12" s="7"/>
+    </row>
+    <row r="13" spans="1:14" x14ac:dyDescent="0.25">
       <c r="D13" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="E13" s="8"/>
-      <c r="F13" s="8"/>
-      <c r="G13" s="8"/>
-    </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="E13" s="7"/>
+      <c r="F13" s="7"/>
+      <c r="G13" s="7"/>
+    </row>
+    <row r="16" spans="1:14" s="3" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A16" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="B16" s="5" t="s">
+      <c r="B16" s="4" t="s">
         <v>9</v>
       </c>
       <c r="C16" s="4" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="D16" s="4" t="s">
         <v>2</v>
@@ -653,49 +717,63 @@
       <c r="F16" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="G16" s="4" t="s">
+      <c r="G16" s="10" t="s">
         <v>13</v>
       </c>
       <c r="H16" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="I16" s="4" t="s">
+      <c r="I16" s="10" t="s">
         <v>3</v>
       </c>
-      <c r="J16" s="4" t="s">
+      <c r="J16" s="10" t="s">
         <v>4</v>
       </c>
-      <c r="K16" s="4" t="s">
+      <c r="K16" s="10" t="s">
+        <v>27</v>
+      </c>
+      <c r="L16" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="L16" s="4" t="s">
-        <v>17</v>
-      </c>
     </row>
     <row r="17" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A17" s="6">
+      <c r="A17" s="5">
         <v>1</v>
       </c>
-      <c r="B17" s="7"/>
-      <c r="C17" s="7"/>
-      <c r="D17" s="7"/>
-      <c r="E17" s="7"/>
-      <c r="F17" s="7"/>
-      <c r="G17" s="7"/>
-      <c r="H17" s="7"/>
-      <c r="I17" s="9">
+      <c r="B17" s="6"/>
+      <c r="C17" s="6"/>
+      <c r="D17" s="6"/>
+      <c r="E17" s="6"/>
+      <c r="F17" s="6"/>
+      <c r="G17" s="6"/>
+      <c r="H17" s="6"/>
+      <c r="I17" s="8">
         <v>44567.625</v>
       </c>
-      <c r="J17" s="9">
+      <c r="J17" s="8">
         <v>44567.625</v>
       </c>
-      <c r="K17" s="7"/>
-      <c r="L17" s="7"/>
+      <c r="K17" s="6"/>
+      <c r="L17" s="6"/>
+    </row>
+    <row r="20" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="I20" s="2" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="25" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B25" s="1" t="s">
+        <v>0</v>
+      </c>
     </row>
   </sheetData>
-  <mergeCells count="2">
+  <mergeCells count="6">
+    <mergeCell ref="A4:L4"/>
     <mergeCell ref="A1:D1"/>
-    <mergeCell ref="A3:F3"/>
+    <mergeCell ref="H1:J1"/>
+    <mergeCell ref="A2:D2"/>
+    <mergeCell ref="H2:J2"/>
+    <mergeCell ref="H3:J3"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/src/server/src/KNTC.HttpApi.Host/wwwroot/ExcelTemplate/Denounce.xlsx
+++ b/src/server/src/KNTC.HttpApi.Host/wwwroot/ExcelTemplate/Denounce.xlsx
@@ -14,6 +14,9 @@
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$17:$L$17</definedName>
+  </definedNames>
   <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -558,10 +561,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:N25"/>
+  <dimension ref="A1:N26"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="102" zoomScaleNormal="102" workbookViewId="0">
-      <selection activeCell="E6" sqref="E6"/>
+      <selection activeCell="H24" sqref="H24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -736,37 +739,76 @@
         <v>16</v>
       </c>
     </row>
-    <row r="17" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A17" s="5">
+    <row r="17" spans="1:12" s="3" customFormat="1" ht="13.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A17" s="4">
         <v>1</v>
       </c>
-      <c r="B17" s="6"/>
-      <c r="C17" s="6"/>
-      <c r="D17" s="6"/>
-      <c r="E17" s="6"/>
-      <c r="F17" s="6"/>
-      <c r="G17" s="6"/>
-      <c r="H17" s="6"/>
-      <c r="I17" s="8">
+      <c r="B17" s="4">
+        <v>2</v>
+      </c>
+      <c r="C17" s="4">
+        <v>3</v>
+      </c>
+      <c r="D17" s="4">
+        <v>4</v>
+      </c>
+      <c r="E17" s="4">
+        <v>5</v>
+      </c>
+      <c r="F17" s="4">
+        <v>6</v>
+      </c>
+      <c r="G17" s="4">
+        <v>7</v>
+      </c>
+      <c r="H17" s="4">
+        <v>8</v>
+      </c>
+      <c r="I17" s="4">
+        <v>9</v>
+      </c>
+      <c r="J17" s="4">
+        <v>10</v>
+      </c>
+      <c r="K17" s="4">
+        <v>11</v>
+      </c>
+      <c r="L17" s="4">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="18" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A18" s="5">
+        <v>1</v>
+      </c>
+      <c r="B18" s="6"/>
+      <c r="C18" s="6"/>
+      <c r="D18" s="6"/>
+      <c r="E18" s="6"/>
+      <c r="F18" s="6"/>
+      <c r="G18" s="6"/>
+      <c r="H18" s="6"/>
+      <c r="I18" s="8">
         <v>44567.625</v>
       </c>
-      <c r="J17" s="8">
+      <c r="J18" s="8">
         <v>44567.625</v>
       </c>
-      <c r="K17" s="6"/>
-      <c r="L17" s="6"/>
-    </row>
-    <row r="20" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="I20" s="2" t="s">
+      <c r="K18" s="6"/>
+      <c r="L18" s="6"/>
+    </row>
+    <row r="21" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="I21" s="2" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="25" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="B25" s="1" t="s">
+    <row r="26" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B26" s="1" t="s">
         <v>0</v>
       </c>
     </row>
   </sheetData>
+  <autoFilter ref="A17:L17"/>
   <mergeCells count="6">
     <mergeCell ref="A4:L4"/>
     <mergeCell ref="A1:D1"/>
